--- a/CertifiTrack/assets/DC Updates.xlsx
+++ b/CertifiTrack/assets/DC Updates.xlsx
@@ -654,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -748,7 +748,7 @@
         <v>18</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>19</v>
